--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.51118998387562</v>
+        <v>4479.726806791266</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.51118998387562</v>
+        <v>4479.726806791266</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91646.46641567479</v>
+        <v>6516093.336803148</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91646.46641567479</v>
+        <v>6516093.336803148</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609445148.504935</v>
+        <v>58016358.9184844</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16576.12946570111</v>
+        <v>1314963.434956052</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32375.61703899226</v>
+        <v>2494024.815157683</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48156.82115963937</v>
+        <v>3673086.195359314</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65015.37841076138</v>
+        <v>4776081.958614337</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81147.77714659889</v>
+        <v>5952903.767081847</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97280.17588243641</v>
+        <v>7129725.575549356</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113412.5746182739</v>
+        <v>8306547.384016858</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>129544.9733541115</v>
+        <v>9483369.192484356</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>146403.2402401878</v>
+        <v>10585989.40159758</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>162534.2883046263</v>
+        <v>11762811.21006508</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178665.3363690648</v>
+        <v>12939633.01853257</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>194796.3844335034</v>
+        <v>14116454.82700007</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210927.4324979419</v>
+        <v>15293276.63546759</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>227785.9566547608</v>
+        <v>16395948.04145862</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246708.3567795801</v>
+        <v>17234280.04165765</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>133</v>
@@ -27052,10 +27052,10 @@
         <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
